--- a/data/trans_orig/P1803_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1803_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>45407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32449</v>
+        <v>32616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59588</v>
+        <v>59876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04025422079373651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0287671310136814</v>
+        <v>0.02891488638773121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05282670335450999</v>
+        <v>0.05308209768919873</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -763,19 +763,19 @@
         <v>58258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43876</v>
+        <v>45491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75381</v>
+        <v>75590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04625258786500259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03483405590159108</v>
+        <v>0.03611619964215858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05984716978566365</v>
+        <v>0.0600126759930073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -784,19 +784,19 @@
         <v>103665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83901</v>
+        <v>83714</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123718</v>
+        <v>124504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04341867076576105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03514075372451152</v>
+        <v>0.03506280644987162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05181760091762749</v>
+        <v>0.05214699280043582</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1082590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1068409</v>
+        <v>1068121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1095548</v>
+        <v>1095381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9597457792062635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9471732966454899</v>
+        <v>0.9469179023108013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9712328689863184</v>
+        <v>0.971085113612269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1134</v>
@@ -834,19 +834,19 @@
         <v>1201303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1184180</v>
+        <v>1183971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1215685</v>
+        <v>1214070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9537474121349974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.940152830214336</v>
+        <v>0.9399873240069927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9651659440984089</v>
+        <v>0.9638838003578414</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2158</v>
@@ -855,19 +855,19 @@
         <v>2283893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2263840</v>
+        <v>2263054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2303657</v>
+        <v>2303844</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.956581329234239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9481823990823725</v>
+        <v>0.9478530071995651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9648592462754886</v>
+        <v>0.9649371935501286</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>35194</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24957</v>
+        <v>25451</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49712</v>
+        <v>49072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03872497234116091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02746088526669287</v>
+        <v>0.02800397123759225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05469920204752841</v>
+        <v>0.05399521474418538</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -980,19 +980,19 @@
         <v>60997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47225</v>
+        <v>47970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78397</v>
+        <v>80328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06060486814894891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0469209969044171</v>
+        <v>0.04766137166958119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07789265082636952</v>
+        <v>0.0798108353535284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1001,19 +1001,19 @@
         <v>96192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76963</v>
+        <v>76193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117725</v>
+        <v>118411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05022268745379934</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04018338802600457</v>
+        <v>0.03978127042168832</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06146579312789924</v>
+        <v>0.06182373843187976</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>873631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>859113</v>
+        <v>859753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>883868</v>
+        <v>883374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9612750276588391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9453007979524715</v>
+        <v>0.9460047852558147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.972539114733307</v>
+        <v>0.9719960287624078</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>896</v>
@@ -1051,19 +1051,19 @@
         <v>945478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>928078</v>
+        <v>926147</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>959250</v>
+        <v>958505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9393951318510511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9221073491736305</v>
+        <v>0.9201891646464716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9530790030955829</v>
+        <v>0.9523386283304189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1745</v>
@@ -1072,19 +1072,19 @@
         <v>1819108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1797575</v>
+        <v>1796889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1838337</v>
+        <v>1839107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9497773125462007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9385342068721004</v>
+        <v>0.9381762615681203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9598166119739954</v>
+        <v>0.9602187295783117</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>41145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28940</v>
+        <v>29098</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55942</v>
+        <v>56647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04994815866833401</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03513219171214291</v>
+        <v>0.03532324937578877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06791089658626484</v>
+        <v>0.06876706714635891</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1197,19 +1197,19 @@
         <v>41636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29631</v>
+        <v>29621</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55927</v>
+        <v>55749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05399879119344333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03842852727673671</v>
+        <v>0.03841593503618059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07253237287192774</v>
+        <v>0.07230139171501834</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -1218,19 +1218,19 @@
         <v>82781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65678</v>
+        <v>65833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103095</v>
+        <v>103570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05190654856291637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04118243883637839</v>
+        <v>0.04127928904135556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06464398887660369</v>
+        <v>0.06494168348422089</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>782614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>767817</v>
+        <v>767112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>794819</v>
+        <v>794661</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.950051841331666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9320891034137351</v>
+        <v>0.9312329328536408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9648678082878567</v>
+        <v>0.9646767506242111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>689</v>
@@ -1268,19 +1268,19 @@
         <v>729423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>715132</v>
+        <v>715310</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>741428</v>
+        <v>741438</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9460012088065567</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9274676271280723</v>
+        <v>0.9276986082849817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9615714727232637</v>
+        <v>0.9615840649638198</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1439</v>
@@ -1289,19 +1289,19 @@
         <v>1512037</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1491723</v>
+        <v>1491248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1529140</v>
+        <v>1528985</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9480934514370837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9353560111233964</v>
+        <v>0.9350583165157792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9588175611636217</v>
+        <v>0.9587207109586445</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>33759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22729</v>
+        <v>24621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46310</v>
+        <v>45897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06662472578756445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04485650335158851</v>
+        <v>0.0485912877147673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09139557724897075</v>
+        <v>0.09058091680943137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1414,19 +1414,19 @@
         <v>33751</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24376</v>
+        <v>24001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47084</v>
+        <v>46657</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06892169993613839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04977663333213751</v>
+        <v>0.04901089068570925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09614841762989633</v>
+        <v>0.09527758183317013</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1435,19 +1435,19 @@
         <v>67510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52665</v>
+        <v>52649</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84392</v>
+        <v>87838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06775361414916227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05285558166842364</v>
+        <v>0.05283976772284916</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08469725168530927</v>
+        <v>0.08815550229926652</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>472942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>460391</v>
+        <v>460804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483972</v>
+        <v>482080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9333752742124356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9086044227510293</v>
+        <v>0.9094190831905686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9551434966484115</v>
+        <v>0.9514087122852327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>423</v>
@@ -1485,19 +1485,19 @@
         <v>455947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>442614</v>
+        <v>443041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>465322</v>
+        <v>465697</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9310783000638616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9038515823701037</v>
+        <v>0.9047224181668296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9502233666678624</v>
+        <v>0.9509891093142907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -1506,19 +1506,19 @@
         <v>928888</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>912006</v>
+        <v>908560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>943733</v>
+        <v>943749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9322463858508377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9153027483146907</v>
+        <v>0.9118444977007335</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9471444183315765</v>
+        <v>0.947160232277151</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>155505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131040</v>
+        <v>131830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>181041</v>
+        <v>184669</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0461811405088509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03891565076660766</v>
+        <v>0.0391502103502979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05376482047058904</v>
+        <v>0.05484202741655927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -1631,19 +1631,19 @@
         <v>194642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167352</v>
+        <v>164881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224382</v>
+        <v>221547</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05518960456285508</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04745168817336388</v>
+        <v>0.04675109618424863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06362222356713329</v>
+        <v>0.0628183150334838</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>322</v>
@@ -1652,19 +1652,19 @@
         <v>350147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>315176</v>
+        <v>315938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>389643</v>
+        <v>386931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05078958819404629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04571700489854136</v>
+        <v>0.04582744403361573</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05651847030445136</v>
+        <v>0.05612519000878648</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3211777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3186241</v>
+        <v>3182613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3236242</v>
+        <v>3235452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9538188594911491</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9462351795294105</v>
+        <v>0.9451579725834408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9610843492333924</v>
+        <v>0.9608497896497025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3142</v>
@@ -1702,19 +1702,19 @@
         <v>3332150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3302410</v>
+        <v>3305245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3359440</v>
+        <v>3361911</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.944810395437145</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9363777764328666</v>
+        <v>0.9371816849665162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.952548311826636</v>
+        <v>0.9532489038157513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6205</v>
@@ -1723,19 +1723,19 @@
         <v>6543928</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6504432</v>
+        <v>6507144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6578899</v>
+        <v>6578137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9492104118059537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9434815296955484</v>
+        <v>0.9438748099912134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9542829951014586</v>
+        <v>0.9541725559663843</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>37969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26369</v>
+        <v>26554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53973</v>
+        <v>51349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0761303221390227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05287087011859884</v>
+        <v>0.05324200432212337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1082182129494114</v>
+        <v>0.102958485688748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -2088,19 +2088,19 @@
         <v>52779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42892</v>
+        <v>41717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64812</v>
+        <v>63451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08463790958256616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06878359381083254</v>
+        <v>0.06689978948509911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1039352051127123</v>
+        <v>0.1017525834400221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -2109,19 +2109,19 @@
         <v>90748</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73548</v>
+        <v>73991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108415</v>
+        <v>111689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0808572854955112</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06553185386418993</v>
+        <v>0.06592708186424269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09659878285510728</v>
+        <v>0.0995159958974652</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>460770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>444766</v>
+        <v>447390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472370</v>
+        <v>472185</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9238696778609773</v>
+        <v>0.9238696778609774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8917817870505885</v>
+        <v>0.8970415143112522</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9471291298814011</v>
+        <v>0.9467579956778768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>778</v>
@@ -2159,19 +2159,19 @@
         <v>570801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>558768</v>
+        <v>560129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>580688</v>
+        <v>581863</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9153620904174338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8960647948872875</v>
+        <v>0.8982474165599779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9312164061891676</v>
+        <v>0.9331002105149009</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1199</v>
@@ -2180,19 +2180,19 @@
         <v>1031572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1013905</v>
+        <v>1010631</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1048772</v>
+        <v>1048329</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9191427145044889</v>
+        <v>0.9191427145044888</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9034012171448924</v>
+        <v>0.9004840041025348</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9344681461358094</v>
+        <v>0.9340729181357574</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>42864</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31073</v>
+        <v>30602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58239</v>
+        <v>58412</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04464405414285896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03236296863769555</v>
+        <v>0.03187226689931098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06065724908426193</v>
+        <v>0.06083737146531301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -2305,19 +2305,19 @@
         <v>82156</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67727</v>
+        <v>69245</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97728</v>
+        <v>98160</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0736260387582571</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06069533969017051</v>
+        <v>0.06205602054007522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08758176444613912</v>
+        <v>0.08796895064494277</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -2326,19 +2326,19 @@
         <v>125020</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106226</v>
+        <v>105569</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146739</v>
+        <v>145320</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.060221966396156</v>
+        <v>0.06022196639615599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05116895230580411</v>
+        <v>0.05085264495608597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07068398907532969</v>
+        <v>0.07000029930706383</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>917273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>901898</v>
+        <v>901725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>929064</v>
+        <v>929535</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9553559458571411</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9393427509157382</v>
+        <v>0.9391626285346871</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9676370313623045</v>
+        <v>0.9681277331006889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1478</v>
@@ -2376,19 +2376,19 @@
         <v>1033693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1018121</v>
+        <v>1017689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1048122</v>
+        <v>1046604</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9263739612417429</v>
+        <v>0.9263739612417428</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9124182355538609</v>
+        <v>0.9120310493550574</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9393046603098295</v>
+        <v>0.9379439794599249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2346</v>
@@ -2397,19 +2397,19 @@
         <v>1950966</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1929247</v>
+        <v>1930666</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1969760</v>
+        <v>1970417</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.939778033603844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9293160109246703</v>
+        <v>0.9299997006929362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9488310476941956</v>
+        <v>0.9491473550439141</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>96192</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76923</v>
+        <v>78478</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118779</v>
+        <v>119662</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09191996630272474</v>
+        <v>0.09191996630272473</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0735068325336205</v>
+        <v>0.07499206954255194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.113503832485964</v>
+        <v>0.1143468287123408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -2522,19 +2522,19 @@
         <v>109857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94252</v>
+        <v>93935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129670</v>
+        <v>125538</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1048616192517913</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08996616460689891</v>
+        <v>0.08966316763828566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1237735877053665</v>
+        <v>0.1198286921242839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>256</v>
@@ -2543,19 +2543,19 @@
         <v>206050</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182120</v>
+        <v>179949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>235698</v>
+        <v>236017</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09839438445726646</v>
+        <v>0.09839438445726649</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08696747403662429</v>
+        <v>0.0859304256506488</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1125521787379707</v>
+        <v>0.1127043832903354</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>950287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>927700</v>
+        <v>926817</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>969556</v>
+        <v>968001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9080800336972753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8864961675140363</v>
+        <v>0.8856531712876591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9264931674663796</v>
+        <v>0.9250079304574481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1352</v>
@@ -2593,19 +2593,19 @@
         <v>937785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>917972</v>
+        <v>922104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>953390</v>
+        <v>953707</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8951383807482088</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8762264122946334</v>
+        <v>0.8801713078757161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.910033835393101</v>
+        <v>0.9103368323617145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2289</v>
@@ -2614,19 +2614,19 @@
         <v>1888071</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1858423</v>
+        <v>1858104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1912001</v>
+        <v>1914172</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9016056155427334</v>
+        <v>0.9016056155427337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8874478212620291</v>
+        <v>0.8872956167096646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9130325259633756</v>
+        <v>0.9140695743493513</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>101183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79842</v>
+        <v>79537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123037</v>
+        <v>122628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1036783141914937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08181144013968179</v>
+        <v>0.0814991216098933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1260714088920067</v>
+        <v>0.1256522869264871</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -2739,19 +2739,19 @@
         <v>121323</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104497</v>
+        <v>102974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142198</v>
+        <v>140280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1335209442681904</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1150034084674996</v>
+        <v>0.1133272568082834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1564954975339241</v>
+        <v>0.1543837394627451</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -2760,19 +2760,19 @@
         <v>222505</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192430</v>
+        <v>197240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>252117</v>
+        <v>254508</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1180668757146717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1021081287668561</v>
+        <v>0.1046606424086094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1337797705572006</v>
+        <v>0.1350482429617953</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>874746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>852892</v>
+        <v>853301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>896087</v>
+        <v>896392</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8963216858085064</v>
+        <v>0.8963216858085065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8739285911079933</v>
+        <v>0.8743477130735131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9181885598603183</v>
+        <v>0.9185008783901066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1152</v>
@@ -2810,19 +2810,19 @@
         <v>787319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>766444</v>
+        <v>768362</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>804145</v>
+        <v>805668</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8664790557318097</v>
+        <v>0.8664790557318096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8435045024660761</v>
+        <v>0.8456162605372548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8849965915325005</v>
+        <v>0.8866727431917163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2006</v>
@@ -2831,19 +2831,19 @@
         <v>1662066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1632454</v>
+        <v>1630063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1692141</v>
+        <v>1687331</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8819331242853283</v>
+        <v>0.8819331242853282</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8662202294427994</v>
+        <v>0.8649517570382046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8978918712331438</v>
+        <v>0.8953393575913906</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>278209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>244491</v>
+        <v>242542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>313080</v>
+        <v>310631</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07991550580503046</v>
+        <v>0.07991550580503048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07023002828831937</v>
+        <v>0.06967032657053074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08993243853426847</v>
+        <v>0.08922880418407737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>545</v>
@@ -2956,19 +2956,19 @@
         <v>366114</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>333393</v>
+        <v>337877</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>396305</v>
+        <v>403064</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0990645674900945</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09021075458630992</v>
+        <v>0.09142392930458394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1072336564711518</v>
+        <v>0.1090626970892787</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>806</v>
@@ -2977,19 +2977,19 @@
         <v>644323</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>597651</v>
+        <v>597079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>692341</v>
+        <v>692748</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08977609713903537</v>
+        <v>0.08977609713903539</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08327313846184864</v>
+        <v>0.08319336014296193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09646666439705039</v>
+        <v>0.09652336535380848</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3203075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3168204</v>
+        <v>3170653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3236793</v>
+        <v>3238742</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9200844941949694</v>
+        <v>0.9200844941949696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9100675614657319</v>
+        <v>0.9107711958159226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9297699717116805</v>
+        <v>0.9303296734294692</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4760</v>
@@ -3027,19 +3027,19 @@
         <v>3329599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3299408</v>
+        <v>3292649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3362320</v>
+        <v>3357836</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9009354325099057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8927663435288483</v>
+        <v>0.8909373029107212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9097892454136901</v>
+        <v>0.9085760706954159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7840</v>
@@ -3048,19 +3048,19 @@
         <v>6532675</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6484657</v>
+        <v>6484250</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6579347</v>
+        <v>6579919</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9102239028609644</v>
+        <v>0.9102239028609646</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9035333356029496</v>
+        <v>0.9034766346461917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9167268615381513</v>
+        <v>0.9168066398570383</v>
       </c>
     </row>
     <row r="18">
